--- a/scraper/top_remaining_spreadsheets_states/top_remaining_NM.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_NM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>STATE</t>
   </si>
@@ -44,18 +44,18 @@
     <t>Cash Money</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>Lucky 7s</t>
   </si>
   <si>
+    <t>5X Lucky</t>
+  </si>
+  <si>
     <t>Quick Silver</t>
   </si>
   <si>
-    <t>5X Lucky</t>
-  </si>
-  <si>
     <t>7 Wins</t>
   </si>
   <si>
@@ -65,10 +65,7 @@
     <t>Fast $50s</t>
   </si>
   <si>
-    <t>Feliz Navidad!</t>
-  </si>
-  <si>
-    <t>2019-02-05</t>
+    <t>2019-03-08</t>
   </si>
   <si>
     <t>$2.00 Games</t>
@@ -141,9 +138,6 @@
   </si>
   <si>
     <t>2019-02-25</t>
-  </si>
-  <si>
-    <t>Joker's Wild</t>
   </si>
   <si>
     <t>$10.00 Games</t>
@@ -500,7 +494,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -599,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -682,10 +676,10 @@
         <v>332</v>
       </c>
       <c r="E9">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -693,19 +687,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -713,16 +707,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -733,16 +727,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -753,16 +747,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -773,16 +767,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -793,16 +787,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -813,16 +807,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -833,16 +827,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -853,16 +847,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -873,16 +867,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
       </c>
       <c r="D19">
-        <v>251</v>
+        <v>340</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -893,13 +887,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -913,16 +907,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
       <c r="D21">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -933,16 +927,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -953,13 +947,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -973,13 +967,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -993,16 +987,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1013,16 +1007,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1033,16 +1027,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1053,13 +1047,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1073,19 +1067,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1093,19 +1087,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D30">
-        <v>310</v>
+        <v>963</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1113,19 +1107,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1133,16 +1127,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>963</v>
+        <v>343</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1153,13 +1147,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1173,58 +1167,18 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>12124</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35">
-        <v>345</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36">
-        <v>307</v>
-      </c>
-      <c r="E36">
-        <v>12537</v>
-      </c>
-      <c r="F36" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_NM.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_NM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>STATE</t>
   </si>
@@ -44,28 +44,31 @@
     <t>Cash Money</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
   </si>
   <si>
     <t>Lucky 7s</t>
   </si>
   <si>
+    <t>$1,000 Jackpot</t>
+  </si>
+  <si>
     <t>5X Lucky</t>
   </si>
   <si>
+    <t>7 Wins</t>
+  </si>
+  <si>
+    <t>3 Times Lucky</t>
+  </si>
+  <si>
+    <t>Fast $50s</t>
+  </si>
+  <si>
     <t>Quick Silver</t>
   </si>
   <si>
-    <t>7 Wins</t>
-  </si>
-  <si>
-    <t>3 Times Lucky</t>
-  </si>
-  <si>
-    <t>Fast $50s</t>
-  </si>
-  <si>
-    <t>2019-03-08</t>
+    <t>2019-03-19</t>
   </si>
   <si>
     <t>$2.00 Games</t>
@@ -83,15 +86,15 @@
     <t>Red Hot Cash</t>
   </si>
   <si>
+    <t>$10 Grand</t>
+  </si>
+  <si>
+    <t>10X Lucky</t>
+  </si>
+  <si>
     <t>Betty Boop™</t>
   </si>
   <si>
-    <t>$10 Grand</t>
-  </si>
-  <si>
-    <t>10X Lucky</t>
-  </si>
-  <si>
     <t>Tapatío</t>
   </si>
   <si>
@@ -134,10 +137,7 @@
     <t>Gold Mine 9X</t>
   </si>
   <si>
-    <t>20X Lucky</t>
-  </si>
-  <si>
-    <t>2019-02-25</t>
+    <t>Chile Crossword</t>
   </si>
   <si>
     <t>$10.00 Games</t>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Triple Red 7's</t>
+  </si>
+  <si>
+    <t>$10,000 Bonus</t>
   </si>
   <si>
     <t>$25, $50, $100!</t>
@@ -494,7 +497,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,10 +576,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -593,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -656,7 +659,7 @@
         <v>326</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -676,10 +679,10 @@
         <v>332</v>
       </c>
       <c r="E9">
-        <v>2308</v>
+        <v>1744</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -687,19 +690,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>322</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>301</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -707,16 +710,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -727,16 +730,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -747,16 +750,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -767,16 +770,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -787,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -807,7 +810,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -827,16 +830,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -847,13 +850,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
       <c r="D18">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -867,16 +870,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
       </c>
       <c r="D19">
-        <v>340</v>
+        <v>251</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -887,13 +890,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -907,16 +910,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
       <c r="D21">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -927,16 +930,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -947,13 +950,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
       <c r="D23">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -967,16 +970,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -987,13 +990,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1007,16 +1010,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1027,13 +1030,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1047,13 +1050,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1067,19 +1070,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1087,13 +1090,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>963</v>
+        <v>329</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1110,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31">
-        <v>317</v>
+        <v>963</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1130,10 +1133,10 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1150,10 +1153,10 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1170,15 +1173,55 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>345</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
         <v>46</v>
       </c>
-      <c r="D34">
+      <c r="D35">
+        <v>323</v>
+      </c>
+      <c r="E35">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36">
         <v>307</v>
       </c>
-      <c r="E34">
-        <v>12124</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E36">
+        <v>9791</v>
+      </c>
+      <c r="F36" t="s">
         <v>9</v>
       </c>
     </row>
